--- a/併購前後是否影響/Data/20230312120834DataExport.xlsx
+++ b/併購前後是否影響/Data/20230312120834DataExport.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchun/Revenue/併購前後是否影響/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570EAB7C-E03D-5048-B512-9A272F0116AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>N3REG 興櫃合併事件(被併消滅)--2013,2014,2015,2016,2017,2018,2019,2020,2021,2022,2023</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="147">
   <si>
     <t>目前狀態</t>
   </si>
@@ -50,7 +58,7 @@
     <t>000025</t>
   </si>
   <si>
-    <t xml:space="preserve">6758    冠亞</t>
+    <t>6758    冠亞</t>
   </si>
   <si>
     <t>2020/12/31</t>
@@ -68,7 +76,7 @@
     <t>000026</t>
   </si>
   <si>
-    <t xml:space="preserve">7516    清淨海</t>
+    <t>7516    清淨海</t>
   </si>
   <si>
     <t>2020/05/31</t>
@@ -83,7 +91,7 @@
     <t>000027</t>
   </si>
   <si>
-    <t xml:space="preserve">7561    光晟生技</t>
+    <t>7561    光晟生技</t>
   </si>
   <si>
     <t>2021/09/01</t>
@@ -98,7 +106,7 @@
     <t>000028</t>
   </si>
   <si>
-    <t xml:space="preserve">8359    錢櫃</t>
+    <t>8359    錢櫃</t>
   </si>
   <si>
     <t>2019/08/15</t>
@@ -113,7 +121,7 @@
     <t>000029</t>
   </si>
   <si>
-    <t xml:space="preserve">8492    兔將</t>
+    <t>8492    兔將</t>
   </si>
   <si>
     <t>2018/07/01</t>
@@ -128,7 +136,7 @@
     <t>000024</t>
   </si>
   <si>
-    <t xml:space="preserve">6737    秀育</t>
+    <t>6737    秀育</t>
   </si>
   <si>
     <t>2019/09/30</t>
@@ -143,7 +151,7 @@
     <t>000023</t>
   </si>
   <si>
-    <t xml:space="preserve">6682    華旭矽材</t>
+    <t>6682    華旭矽材</t>
   </si>
   <si>
     <t>2022/09/30</t>
@@ -167,7 +175,7 @@
     <t>000021</t>
   </si>
   <si>
-    <t xml:space="preserve">6652    雅祥生醫</t>
+    <t>6652    雅祥生醫</t>
   </si>
   <si>
     <t>2018/11/01</t>
@@ -182,7 +190,7 @@
     <t>000020</t>
   </si>
   <si>
-    <t xml:space="preserve">6622    百聿數碼</t>
+    <t>6622    百聿數碼</t>
   </si>
   <si>
     <t>2017/09/29</t>
@@ -197,7 +205,7 @@
     <t>000019</t>
   </si>
   <si>
-    <t xml:space="preserve">6621    華宇藥</t>
+    <t>6621    華宇藥</t>
   </si>
   <si>
     <t>2018/09/01</t>
@@ -212,7 +220,7 @@
     <t>000018</t>
   </si>
   <si>
-    <t xml:space="preserve">6599    普達系統</t>
+    <t>6599    普達系統</t>
   </si>
   <si>
     <t>2015/09/30</t>
@@ -227,7 +235,7 @@
     <t>000017</t>
   </si>
   <si>
-    <t xml:space="preserve">6539    麗彤</t>
+    <t>6539    麗彤</t>
   </si>
   <si>
     <t>2020/07/01</t>
@@ -251,7 +259,7 @@
     <t>000015</t>
   </si>
   <si>
-    <t xml:space="preserve">6536    碩豐</t>
+    <t>6536    碩豐</t>
   </si>
   <si>
     <t>2021/10/31</t>
@@ -266,7 +274,7 @@
     <t>000014</t>
   </si>
   <si>
-    <t xml:space="preserve">6526    達發</t>
+    <t>6526    達發</t>
   </si>
   <si>
     <t>2022/09/05</t>
@@ -302,7 +310,7 @@
     <t>000011</t>
   </si>
   <si>
-    <t xml:space="preserve">6473    美賣*</t>
+    <t>6473    美賣*</t>
   </si>
   <si>
     <t>2022/10/01</t>
@@ -317,7 +325,7 @@
     <t>000010</t>
   </si>
   <si>
-    <t xml:space="preserve">6272    驊陞</t>
+    <t>6272    驊陞</t>
   </si>
   <si>
     <t>2014/06/30</t>
@@ -344,7 +352,7 @@
     <t>000008</t>
   </si>
   <si>
-    <t xml:space="preserve">4949    有成</t>
+    <t>4949    有成</t>
   </si>
   <si>
     <t>2018/12/31</t>
@@ -359,7 +367,7 @@
     <t>000007</t>
   </si>
   <si>
-    <t xml:space="preserve">4732    彥臣</t>
+    <t>4732    彥臣</t>
   </si>
   <si>
     <t>2017/12/15</t>
@@ -374,7 +382,7 @@
     <t>000006</t>
   </si>
   <si>
-    <t xml:space="preserve">4150    優你康</t>
+    <t>4150    優你康</t>
   </si>
   <si>
     <t>2015/06/30</t>
@@ -389,7 +397,7 @@
     <t>000005</t>
   </si>
   <si>
-    <t xml:space="preserve">4115    善德生技</t>
+    <t>4115    善德生技</t>
   </si>
   <si>
     <t>2003/06/08</t>
@@ -401,7 +409,7 @@
     <t>000004</t>
   </si>
   <si>
-    <t xml:space="preserve">3485    敘豐</t>
+    <t>3485    敘豐</t>
   </si>
   <si>
     <t>2015/08/01</t>
@@ -416,7 +424,7 @@
     <t>000003</t>
   </si>
   <si>
-    <t xml:space="preserve">3097    拍檔</t>
+    <t>3097    拍檔</t>
   </si>
   <si>
     <t>2015/06/01</t>
@@ -431,7 +439,7 @@
     <t>000002</t>
   </si>
   <si>
-    <t xml:space="preserve">2645    長榮航太</t>
+    <t>2645    長榮航太</t>
   </si>
   <si>
     <t>長榮航宇精密</t>
@@ -440,27 +448,39 @@
     <t>000001</t>
   </si>
   <si>
-    <t xml:space="preserve">1585    鎧鉅</t>
+    <t>1585    鎧鉅</t>
   </si>
   <si>
     <t>2007/10/01</t>
   </si>
   <si>
     <t>聚盛實業</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>事件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>興櫃合併事件(被併消滅)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -468,7 +488,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -480,24 +513,39 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -763,995 +811,1079 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K30" sqref="A2:K30"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.43" customWidth="1"/>
-    <col min="2" max="2" width="11.43" customWidth="1"/>
-    <col min="3" max="3" width="16.71" customWidth="1"/>
-    <col min="4" max="4" width="11.43" customWidth="1"/>
-    <col min="5" max="5" width="11.43" customWidth="1"/>
-    <col min="6" max="6" width="11.43" customWidth="1"/>
-    <col min="7" max="7" width="11.43" customWidth="1"/>
-    <col min="8" max="8" width="11.43" customWidth="1"/>
-    <col min="9" max="9" width="11.43" customWidth="1"/>
-    <col min="10" max="10" width="21.43" customWidth="1"/>
+    <col min="1" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" customWidth="1"/>
+    <col min="4" max="9" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1" s="1">
+    <row r="1" spans="1:11" ht="16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
-      <c t="s" r="A3" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="B3" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="C3" s="2">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="D3" s="2">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="E3" s="2">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="F3" s="2">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="G3" s="2">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="H3" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="I3" s="3">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="J3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" r="A4" s="2">
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="B4" s="2">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="C4" s="2">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="D4" s="2">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="E4" s="2">
-        <v>15</v>
-      </c>
-      <c t="s" r="F4" s="2">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="G4" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H4" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I4" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J4" s="2">
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5">
-      <c t="s" r="A5" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B5" s="2">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="C5" s="2">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="D5" s="2">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="E5" s="2">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="F5" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G5" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H5" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I5" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J5" s="2">
+      <c r="K3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6">
-      <c t="s" r="A6" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B6" s="2">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="C6" s="2">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="D6" s="2">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="E6" s="2">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="F6" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G6" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H6" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I6" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J6" s="2">
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7">
-      <c t="s" r="A7" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B7" s="2">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="C7" s="2">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="D7" s="2">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="E7" s="2">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="F7" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G7" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H7" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I7" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J7" s="2">
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="32">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8">
-      <c t="s" r="A8" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B8" s="2">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="C8" s="2">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="D8" s="2">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="E8" s="2">
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
-      <c t="s" r="F8" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G8" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H8" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I8" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J8" s="2">
+      <c r="K6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="32">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9">
-      <c t="s" r="A9" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B9" s="2">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="C9" s="2">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D9" s="2">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="E9" s="2">
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="F9" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G9" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H9" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I9" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J9" s="2">
+      <c r="K7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10">
-      <c t="s" r="A10" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B10" s="2">
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="C10" s="2">
+      <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="D10" s="2">
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="E10" s="2">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="F10" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G10" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H10" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I10" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J10" s="2">
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11">
-      <c t="s" r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B11" s="2">
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="C11" s="2">
-        <v>44</v>
-      </c>
-      <c t="s" r="D11" s="2">
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="E11" s="2">
-        <v>46</v>
-      </c>
-      <c t="s" r="F11" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G11" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H11" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I11" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J11" s="2">
+      <c r="K9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12">
-      <c t="s" r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B12" s="2">
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="C12" s="2">
+      <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="D12" s="2">
+      <c r="E10" s="1" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="E12" s="2">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="F12" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G12" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H12" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I12" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J12" s="2">
+      <c r="K10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="32">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13">
-      <c t="s" r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B13" s="2">
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="C13" s="2">
+      <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="D13" s="2">
+      <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="E13" s="2">
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="F13" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G13" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H13" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I13" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J13" s="2">
+      <c r="K11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14">
-      <c t="s" r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B14" s="2">
+      <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="C14" s="2">
+      <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c t="s" r="D14" s="2">
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="E14" s="2">
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="F14" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G14" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H14" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I14" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J14" s="2">
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="32">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15">
-      <c t="s" r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B15" s="2">
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="C15" s="2">
+      <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="D15" s="2">
+      <c r="E13" s="1" t="s">
         <v>68</v>
       </c>
-      <c t="s" r="E15" s="2">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="F15" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G15" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H15" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I15" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J15" s="2">
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="32">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16">
-      <c t="s" r="A16" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B16" s="2">
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="C16" s="2">
+      <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="D16" s="2">
+      <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="E16" s="2">
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>74</v>
       </c>
-      <c t="s" r="F16" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G16" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H16" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I16" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J16" s="2">
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17">
-      <c t="s" r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B17" s="2">
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="C17" s="2">
-        <v>72</v>
-      </c>
-      <c t="s" r="D17" s="2">
-        <v>35</v>
-      </c>
-      <c t="s" r="E17" s="2">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="F17" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G17" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H17" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I17" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J17" s="2">
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="32">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18">
-      <c t="s" r="A18" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B18" s="2">
+      <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="C18" s="2">
+      <c r="D16" s="1" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="D18" s="2">
+      <c r="E16" s="1" t="s">
         <v>81</v>
       </c>
-      <c t="s" r="E18" s="2">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>82</v>
       </c>
-      <c t="s" r="F18" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G18" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H18" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I18" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J18" s="2">
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="32">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19">
-      <c t="s" r="A19" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B19" s="2">
+      <c r="C17" s="1" t="s">
         <v>84</v>
       </c>
-      <c t="s" r="C19" s="2">
+      <c r="D17" s="1" t="s">
         <v>85</v>
       </c>
-      <c t="s" r="D19" s="2">
+      <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-      <c t="s" r="E19" s="2">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>87</v>
       </c>
-      <c t="s" r="F19" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G19" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H19" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I19" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J19" s="2">
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="32">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20">
-      <c t="s" r="A20" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B20" s="2">
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>89</v>
       </c>
-      <c t="s" r="C20" s="2">
-        <v>85</v>
-      </c>
-      <c t="s" r="D20" s="2">
+      <c r="E18" s="1" t="s">
         <v>90</v>
       </c>
-      <c t="s" r="E20" s="2">
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>91</v>
       </c>
-      <c t="s" r="F20" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G20" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H20" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I20" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J20" s="2">
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="32">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21">
-      <c t="s" r="A21" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B21" s="2">
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
-      <c t="s" r="C21" s="2">
-        <v>85</v>
-      </c>
-      <c t="s" r="D21" s="2">
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>94</v>
       </c>
-      <c t="s" r="E21" s="2">
-        <v>91</v>
-      </c>
-      <c t="s" r="F21" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G21" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H21" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I21" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J21" s="2">
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="32">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22">
-      <c t="s" r="A22" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B22" s="2">
+      <c r="C20" s="1" t="s">
         <v>96</v>
       </c>
-      <c t="s" r="C22" s="2">
+      <c r="D20" s="1" t="s">
         <v>97</v>
       </c>
-      <c t="s" r="D22" s="2">
+      <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="E22" s="2">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>99</v>
       </c>
-      <c t="s" r="F22" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G22" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H22" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I22" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J22" s="2">
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="32">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23">
-      <c t="s" r="A23" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B23" s="2">
+      <c r="C21" s="1" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C23" s="2">
+      <c r="D21" s="1" t="s">
         <v>102</v>
       </c>
-      <c t="s" r="D23" s="2">
+      <c r="E21" s="1" t="s">
         <v>103</v>
       </c>
-      <c t="s" r="E23" s="2">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>104</v>
       </c>
-      <c t="s" r="F23" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G23" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H23" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I23" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J23" s="2">
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="32">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24">
-      <c t="s" r="A24" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B24" s="2">
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>106</v>
       </c>
-      <c t="s" r="C24" s="2">
-        <v>102</v>
-      </c>
-      <c t="s" r="D24" s="2">
+      <c r="E22" s="1" t="s">
         <v>107</v>
       </c>
-      <c t="s" r="E24" s="2">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>108</v>
       </c>
-      <c t="s" r="F24" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G24" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H24" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I24" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J24" s="2">
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="32">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25">
-      <c t="s" r="A25" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B25" s="2">
+      <c r="C23" s="1" t="s">
         <v>110</v>
       </c>
-      <c t="s" r="C25" s="2">
+      <c r="D23" s="1" t="s">
         <v>111</v>
       </c>
-      <c t="s" r="D25" s="2">
+      <c r="E23" s="1" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="E25" s="2">
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="F25" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G25" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H25" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I25" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J25" s="2">
+      <c r="K23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="32">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26">
-      <c t="s" r="A26" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B26" s="2">
+      <c r="C24" s="1" t="s">
         <v>115</v>
       </c>
-      <c t="s" r="C26" s="2">
+      <c r="D24" s="1" t="s">
         <v>116</v>
       </c>
-      <c t="s" r="D26" s="2">
+      <c r="E24" s="1" t="s">
         <v>117</v>
       </c>
-      <c t="s" r="E26" s="2">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>118</v>
       </c>
-      <c t="s" r="F26" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G26" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H26" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I26" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J26" s="2">
+      <c r="K24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="32">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27">
-      <c t="s" r="A27" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B27" s="2">
+      <c r="C25" s="1" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C27" s="2">
+      <c r="D25" s="1" t="s">
         <v>121</v>
       </c>
-      <c t="s" r="D27" s="2">
+      <c r="E25" s="1" t="s">
         <v>122</v>
       </c>
-      <c t="s" r="E27" s="2">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>123</v>
       </c>
-      <c t="s" r="F27" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G27" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H27" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I27" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J27" s="2">
+      <c r="K25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="32">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28">
-      <c t="s" r="A28" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B28" s="2">
+      <c r="C26" s="1" t="s">
         <v>125</v>
       </c>
-      <c t="s" r="C28" s="2">
+      <c r="D26" s="1" t="s">
         <v>126</v>
       </c>
-      <c t="s" r="D28" s="2">
+      <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>127</v>
       </c>
-      <c t="s" r="E28" s="2">
-        <v>127</v>
-      </c>
-      <c t="s" r="F28" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G28" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H28" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I28" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J28" s="2">
+      <c r="K26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="32">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29">
-      <c t="s" r="A29" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B29" s="2">
+      <c r="C27" s="1" t="s">
         <v>129</v>
       </c>
-      <c t="s" r="C29" s="2">
+      <c r="D27" s="1" t="s">
         <v>130</v>
       </c>
-      <c t="s" r="D29" s="2">
+      <c r="E27" s="1" t="s">
         <v>131</v>
       </c>
-      <c t="s" r="E29" s="2">
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>132</v>
       </c>
-      <c t="s" r="F29" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G29" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H29" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I29" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J29" s="2">
+      <c r="K27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="32">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30">
-      <c t="s" r="A30" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B30" s="2">
+      <c r="C28" s="1" t="s">
         <v>134</v>
       </c>
-      <c t="s" r="C30" s="2">
+      <c r="D28" s="1" t="s">
         <v>135</v>
       </c>
-      <c t="s" r="D30" s="2">
+      <c r="E28" s="1" t="s">
         <v>136</v>
       </c>
-      <c t="s" r="E30" s="2">
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>137</v>
       </c>
-      <c t="s" r="F30" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G30" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H30" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I30" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J30" s="2">
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="32">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31">
-      <c t="s" r="A31" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B31" s="2">
+      <c r="C29" s="1" t="s">
         <v>139</v>
       </c>
-      <c t="s" r="C31" s="2">
+      <c r="D29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>140</v>
       </c>
-      <c t="s" r="D31" s="2">
-        <v>112</v>
-      </c>
-      <c t="s" r="E31" s="2">
-        <v>113</v>
-      </c>
-      <c t="s" r="F31" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G31" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H31" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I31" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J31" s="2">
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="32">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="32">
-      <c t="s" r="A32" s="2">
-        <v>11</v>
-      </c>
-      <c t="s" r="B32" s="2">
+      <c r="C30" s="1" t="s">
         <v>142</v>
       </c>
-      <c t="s" r="C32" s="2">
+      <c r="D30" s="1" t="s">
         <v>143</v>
       </c>
-      <c t="s" r="D32" s="2">
+      <c r="E30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>144</v>
       </c>
-      <c t="s" r="E32" s="2">
-        <v>144</v>
-      </c>
-      <c t="s" r="F32" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="G32" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="H32" s="2">
-        <v>16</v>
-      </c>
-      <c t="s" r="I32" s="3">
-        <v>16</v>
-      </c>
-      <c t="s" r="J32" s="2">
-        <v>145</v>
+      <c r="K30" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J32" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J30" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>